--- a/500all/speech_level/speeches_CHRG-114hhrg97450.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
 </sst>
 </file>
@@ -451,9 +448,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97450.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,28 +437,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/500all/speech_level/speeches_CHRG-114hhrg97450.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -52,13 +55,241 @@
     <t>REGULATORY OVERLOAD: THE EFFECTS OF FEDERAL REGULATIONS ON SMALL FIRMS'</t>
   </si>
   <si>
-    <t>400071</t>
-  </si>
-  <si>
-    <t>Chabot</t>
-  </si>
-  <si>
-    <t>Steve</t>
+    <t>412645</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Hardy</t>
+  </si>
+  <si>
+    <t>Cresent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Good afternoon.    I'd like to thank you all for being here today. I'd like to call this meeting to order.    Since this is a Congressional hearing, we are going to begin, as we do with everything in every session in the House of Representatives, with a prayer and posting of the colors and the Pledge of Allegiance.    I now recognize Pastor Matt Teis, of the Liberty Baptist Church in Las Vegas, to lead us in the prayer.    Pastor TEIS. Please join me in prayer.    Lord Jesus, today we come before you. We're thankful for all you have given us. The freedoms that we enjoy in this country are a gift from you. As our founders recognize, we recognize the same today.    Father, we pray that you would be with Congressman Hardy. Give him wisdom. Thank you for putting him in the position that he's in today. Father, as he hears testimonies and insight from the men and women present here, I pray that you give him wisdom and insight on courses to take and directions that we should follow as a nation.    Lord, we are so thankful for all you have given us and I pray that you would bless this room, bless this time, and keep us safe. Thank you for the veterans who serve us and give us the freedoms that we enjoy.    Thank you most of all for Jesus, who died, was buried, and lives again to pay for our sins. We ask all this in His name.    Amen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. I'd like to recognize the Nellis Air Force color guard to post the colors, and I would like you to remain standing.    [Colors posted.]    You may be seated.    I'd like to give a special thanks to all our military men and women who participated today, and as you know, Veterans Day is upcoming this Wednesday, and I'd like to personally thank each and every one of you for your service to your country personally. Thank you very much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Today's hearing will focus on the topic that I am passionate about: Reducing the burden of regulation on small businesses.    One of the most--one of the biggest concerns I hear from small businesses and their owners, both in Nevada's Fourth District and around the country, is that Federal regulations have gotten out of control. So it is to no surprise that in a September 2015 survey Federal regulations were tied with taxes as the number one issue affecting small business owners.    Agencies publish thousands of final regulations every year on diverse subjects including, but not limited to, workplace safety, finance, environmental protection, health care, energy conservation and endangered species.    In 2014 alone, Federal regulators issued over 2,400 new rules, of which 77 were classified as major. To me, this seems like a little bit of an over onslaught of new red tape.    While I understand the need for some level of regulation, I'm concerned that small businesses are not being heard, or even considered, when these rules come down through the pipeline. Small businesses, as we hear today, are unique and disproportionately affected by the cost of regulation. A company with under 50 employees annually spends 17 percent more than the average company to comply with federal regulations.    While this may not seem like much, just imagine if that 17 percent could be used differently, for hiring additional employees, and other issues.    As Chairman of a Subcommittee over Investigation, Oversight and Regulation, I am working hard to help ensure the regulatory burdens on small firms are reduced so that these businesses can focus on creating jobs and spurring on economic growth.    I would like to thank each of the witnesses for taking time to be here and provide their testimony today on the ways we can work together to reduce regulatory burdens on small businesses. I look forward to hearing your testimony.    We'll now explain the timing of the clock. If a Committee member has, first, if any Committee member has an opening statement prepared, I ask that they might be submitted for the record.    I'd like to take a moment to explain the timing lights for you. You will have five minutes for your testimony, to deliver that testimony. The light will start out green. When you have one minute remaining it will turn yellow. Finally at the end of your five minutes it will turn red. I ask that you try to adhere to that. We will have a little extra flexibility.    With that being said, we would like to start with the introductions. Mr. Hafen is our first witness. Mr. Hafen is the president and CEO of Nevada Bank and Trust, headquartered in Caliente, Nevada. Mr. Hafen is testifying on behalf of Nevada Bankers Association. Welcome, and you have five minutes, and you may begin.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>HAFEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. Thank you, Mr. Hardy. I guess I should push my button so everybody can hear.    Thank you, Mr. Hardy, Representative Hardy, for the opportunity in which I can spend just a few minutes and to share some of my thoughts on the regulatory environment in which we do business.    I'd like to tell the Committee just a little bit about myself and about the bank in which I work. I grew up in Nevada. I'm a native Nevadan, and I've lived in Nevada for over 40 years. I'm grateful for the opportunity to represent the Nevada Bankers Association today. I'm the President, as you mentioned, the President &amp; CEO of Nevada Bank and Trust, a small community bank located in Caliente, Nevada, with assets right around $112 million.    This bank was created by a group of small businessmen in 1978. This group of small businessmen had to travel over 30 miles to do their banking at that time, and sometimes I think 30 miles isn't much, but in '78 it was quite the chore to go up the hill to Pioche.    So this group of gentlemen, they got together and they formed this little bank, and from the time of its inception to the peak of its existence it had nine branches. Their dream was to have a small bank in every small town along US 93, which as many of you know, travels from southern Nevada clear to the northern tip of Nevada and on, and they accomplished that.    As regulations mounted and pressure came from regulators, the idea of having a profitable branch was questioned constantly, and so now we have four branches. Because many of the branches were not profitable, although they provided a service, they were closed. So now we have branches in Caliente, Mesquite, Ely, and Elko.    Some of the regulation, the over-burdening regulation that I would like to address in the remainder of my time have to deal with primarily results of the Dodd-Frank Act. As you may know, that act is they have instilled 398 new rules resulting in at least 22,534 pages of information, and I note that that's only about two-thirds of the entire act. So we have plenty to look forward to.    A few items that come out of Dodd-Frank that at first were to make our lives easier as bankers, one being the recent TRID rule, or the combining of TILA and the RESPA disclosures when someone wants to get a home mortgage. That rule came into effect on October 3rd and I'll just tell you how it has affected us.    For over 30 years we have been able to do home mortgages, providing mortgages that I refer to ``out of the box'' in rural Nevada. ``Out of the box'' meaning that these are people who have come to get a mortgage and just don't fit the box that many of the large institutions offer.    But we would offer those mortgages. We would write those loans, and we would keep them on our books for the life of those loans.    But with this new regulation, although it was intended to make things easier, the compliance, and making sure that we are compliant to the rule had become over-burdening, to the point where our Board, my Board has voted to stop mortgages.    Now the problem with this is at the end of the day it doesn't really hurt us as a bank, because it was never really a money-maker for us. We barely did maybe 12 to 18 mortgages a year.    But now there's 12 or 18 people across the State of Nevada won't be able to get a mortgage because we can't offer it, so they are going to go somewhere else. That's one of the regulations that's really put a burden on us.    Now there are other regulations that have caused issues, that have caused us to either stop offering services and look at other ways to provide services. One thing that I think we would remember is the unintended acts and the results of some of this regulation that's really come down on us. Thank you, Representative Hardy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Mr. Hafen.    I'm now pleased to introduce our next witness, Robin Simmers, the CEO of Pahranagat Valley Federal Credit Union, which is headquartered in Alamo, Nevada.    Ms. Simmers is testifying on behalf of the Nevada Credit Union League. I thank you for making the journey. We'll turn the five minutes over to you now.</t>
+  </si>
+  <si>
+    <t>SIMMERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. Thank you. I want to thank you, Chairman Hardy, and the Committee for inviting me here to testify today. As you stated, my name is Robin Simmers. I am the Chief Executive Officer of Pahranagat Valley Credit Union, located in Alamo, Nevada, roughly 100 miles northeast of Las Vegas.    I'm happy to be here today to share the story of the Pahranagat Valley, a $20 million credit union, and credit unions nationally. I'm also pleased to come before the committee on behalf of the Nevada Credit Union League and the Credit Union National Association who represents roughly 6,300 credit unions nationwide and 104 million credit union members.    Currently there are 18 Nevada-based and operated credit unions. Credit unions are not-for-profit financial organizations owned by our members who democratically elect our voluntary board of directors.    We do not have stock. We are not publicly traded, and return all of our profits to our members in various forms.    The credit union model of operation is different from other financial services as our incentives are to serve the members of our valleys or our districts. Whether serving in a small community or a large metropolitan area, there is consistency in the compliance burdens that credit unions are experiencing.    A little bit about Pahranagat Valley Credit Union. Including myself, the credit union employs six full-time employees, that we serve roughly around 2,000 members. Running a small credit union, which is also a small business, presents a variety of challenges. With the team of six, I'm not only the CEO and manager, I am a teller, I'm the chief financial officer, I'm the chief operating officer, I am the HR department, I am the only business lender, I'm the only mortgage lender in the credit union. I'm also the IT person and a variety of other jobs.    Since 2011, unfortunately, Nevada Bank &amp; Trust had issues. They are no longer in our valley. We are the sole person that our members can come to. We are the only financial institution, 100 miles from Vegas, almost 60 miles from Caliente, so we are it.    Credit unions nationally are facing a crisis of creeping complexities with respect to regulation burdens. Since the beginning of the financial crisis in 2008, credit unions have been subject to more than 202 regulatory changes, from nearly two dozen federal agencies, totaling more than 6,000 pages in the federal register.    Every time a rule is changed, the credit unions and their members incur costs. This must take--they must take time to understand the new regulations, we have to modify our systems, we have to update our internal controls, train our staff, produce the new materials and explain the products or regulations to our members.    Even simple changes in regulation cost the credit union thousands of dollars and many hours of time and resources that could be appropriately spent on serving the needs of our members.    If there's one take-away from the Committee members today is that Washington primarily are regulators and to some extent Congress has challenges understanding how the laws, rules, and regulations apply to small credit unions. I don't believe they get the gist of how it comes down at the very end, how things are run.    As I stated earlier, I am only one employee wearing multiple hats. Overall rules and regulations are written and prescribed with the largest players in mind. Imagine the ease of a trillion dollar bank to add a new compliance manager. At my credit union, I am it. Because of our size and scope we do not have the ability to simply add another person to our staff.    At my credit union I know my members intimately. We know exactly who walks through our door. I know when they have trouble making their mortgage payments or when they need the flexibility in their car loan.    For a $20 million credit union to adapt to the one-size-fits-all approach from Washington simply does not work. At a small credit union because of that closeness with our members, a major regulation designated for implementation at a large financial institution simply does not make sense for us.    Some examples of these, but are not limited to, include the complex factors with the Bank Secrecy Act, the limiting transfers between accounts under Reg D, and the natures of the fees associated that accompany courtesy pay and prescribed by the Consumer Financial Protection Bureau.    If the Committee were to poll larger financial institutions, their reasons for disagreeing with these regulations would be very different from those of a smaller institution. We basically see the whole ramifications of everything because we're hands-on.    The only recourse we have in the environment is to advise our regulators who recommend we comment on every proposed rule and regulation. This is simply not feasible when you are wearing everything. We don't have time to do that. We understand the need of it, but the time to be able to do it is not there.    I look forward to your questions and hope to provide valuable insight about how we service our community by working to follow the onslaught of new rules, existing regulations and hope for relief in the form of legislation.    My written testimony prescribes a number of recommendations on how to improve the credit union charter and address the regulatory operating environment that impacts both the credit unions and how we serve our members.    Thank you again for having me here today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Ms. Simmers.    Our third witness here today is David Jennings, who serves on the Board of the Southern Nevada Home Builders Association, headquartered in Las Vegas, Nevada. He is testifying here today on behalf of the Association and all their small home builders. We look forward to your testimony.</t>
+  </si>
+  <si>
+    <t>JENNINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. Thank you, Chairman Hardy. I appreciate the opportunity to testify today.    At the home builders, the Southern Nevada Home Builders Association has over 1,000 active members, and that represents more than 15,000 employees, just in the area of southern Nevada.    I'm here to talk about a new enforcement policy that affects what is at the core of the home building business, and that's land. This new enforcement policy is still new, but its impact is growing. There's still time to reverse course and bring some common sense back to this process.    Just a little background. When Federal land is conveyed to private owners, the BLM usually reserves to the United States rights to certain minerals. Those mineral reservations run with the land. Most land in Nevada is subject to some kind of mineral reservation.    It is the recent regulation of those reserve mineral rights that is a problem.    In response to an audit by the Inspector General of the Department of the Interior, the local BLM field offices were directed to more vigorously pursue mineral material trespass claims. Those claims seek fines or fees for the unauthorized use of mineral materials. There are now 84 pending trespass claims in southern Nevada, which is a dramatic increase from just a few years ago.    Under the regulation, owners of land subject to a Federal mineral reservation are allowed to use ``a minimal amount of mineral materials for their own personal use, but only within the boundaries of their property. Anything beyond that is considered unauthorized unless the landowner pays the BLM.'' That is from Title 43 of the Code of Federal Regulations.    The problem is what constitutes ``a minimal amount.'' What does ``personal use'' really mean. The regulations are not clear, and therefore the enforcement is not predictable.    Some examples of recent enforcement action include a builder removes and relocates several thousand cubic yards of common soil material at its own cost, simply to match the elevation of surrounding developments. The BLM pursued a trespass action against the builder, and the builder paid tens of thousands of dollars to resolve the enforcement action.    Another builder purchased a large parcel from a BLM auction some years ago. The land was later subdivided into more manageable-sized parcels for residential development. The builder moved common soil and sand and gravel from one parcel to another, but within the original boundaries of the land.    The BLM issued a trespass notice to the builder. The builder has spent already tens of thousands of dollars defending the action and faces the possibility of hundreds of thousands of dollars in fines and fees and the possible interruption of his development.    It's difficult for home builders and developers to comprehend that when they purchase land for development, they may be at risk that either the BLM or some third party may have rights to come onto the land to extract sand and gravel, or even common soil.    It is similarly difficult to understand that they may be subject to fines or fees for normal development activity. This is especially troubling when the use of the land by the builder is entirely consistent with the purpose for which the land was originally sold.    For example, land sold under the Small Tract Act of 1938 was done so to provide land for residential, recreational, and even business use. When builders are being fined for using this land for residential use, it just doesn't seem right.    One problem is that the new enforcement policy is being retroactively applied to parcels already purchased by home builders and developers. The builder faces possible fines and fees that were never considered when the initial investment in the land was made. This also makes future investment in land more costly and less predictable.    If you get the land right, everything else takes care of itself. That's kind of a common term in home building. The new enforcement policy with these uncertain standards makes it increasingly difficult to get the land right. With uncertainty comes risk. The greater the risk, the less likely investment in land will be made.    This is a problem for both large and small builders, but it is especially burdensome on small homebuilders. They must put their eggs in far fewer baskets so there's more at stake with each investment in land. When some of these eggs break, the impact to the small builder is magnified.    So what can we do? First, develop more predictable and defensible standards. There needs to be clear and more fair distinctions between commercial and personal use. For instance, personal use should include use of common soil material within the boundaries of a development without fear of additional fees or fines, at a minimum.    There should be public notice and an ample opportunity for comment before interpretations are made and enforcement standards are set to result in common sense rule-making.    The BLM should also follow the guidelines of the Regulatory Flexibility Act, bring small business into the discussion, find out how the regulations and their enforcement hamper small business, then tailor the regulations so they are predictable and not harmful, and promote a true public interest.    Now, I don't wish to cast stones at all. The people at the local BLM office have been nothing but cooperative and professional. They are being directed by management in Washington to press this issue, even though the regulatory standards are not clear and in many ways not fair. I welcome any questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Mr. Jennings.    I'd like to now turn to my final witness, Mr. Mendis Cooper, who serves as the general manager of Overton Power District in Overton, Nevada.    He is testifying today on behalf of the Nevada Rural Electric Association, and I'd like to thank you for being here and I look forward to your testimony.</t>
+  </si>
+  <si>
+    <t>COOPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. COOPER. Mr. Chairman, I appreciate the invitation to be here to testify today. Thank you.    As you mentioned, my name is Mendis Cooper. I'm the general manager of Overton Power District Number 5. Overton Power District is a public power district that was created in 1935 to deliver hydropower from Hoover Dam to the rural customers of Clark County, Nevada.    Currently we serve over 2,000 square miles of Nevada land. We have over 100 miles of transmission line, over 600 miles of distribution lines, and over 15,000 metered customers in our area.    We've seen a number of changes as we've gone through the years, not only because of growth, but because of the regulations that have been put in place.    I also represent today, as I discuss some of the issues that concern us, the Nevada Rural Electric Association, of which I am a board member. So I also represent Nevada Rural Electric today.    Nevada Rural Electric is a group of nine rural cooperatives and power districts located here in Nevada. We serve over 50,000 square miles of Nevada land, and we also serve over 60,000 customers in Nevada. We also serve small areas in California, Idaho, Oregon, and Utah. And so the things that happen to us affect a wide range of area and a great number of people.    The electric cooperatives and public power districts were created to serve areas that were not prime locations to be served by large investor utilities. You find that the rural utilities serve about, per mile line, about seven customers per mile of line on average. Whereas an investor-run utility will serve 35 customers per mile, on average.    So the costs that we have to put in place are spread amongst fewer customers and so the impacts are greater because of the things that happen.    We are governed, all of us, by boards that are elected, and we are all nonprofit entities, and even though we are nonprofit, a number of our entities pay property taxes and are thus small businesses.    The Rural Electric Association was created in the 1930s, and it was created to help entities like us provide power to the businesses and the people who needed it. And the interesting thing about the REA is that it gave us the opportunity to form as individuals in our communities, to do what was best for us, and then the government got out of the way and let us do those things. And we have seen a change in that over time and because of the regulations that have been put in place.    For example, as I mentioned, we serve a wide area in Nevada, and much of that land is BLM land, and we've seen some significant changes as we try to obtain rights-of-way to serve new businesses and new customers in our areas.    It used to be that to obtain a right-of-way it cost about $500 per mile, and the average time was about 12 months.    Recently we've seen the cost increase to about $25,000 per mile, and we see right-of-ways average about eight years. And there have been some utilities in our state that have spent over ten years trying to obtain a BLM right-of-way. The process is way too cumbersome and the requirements, as was mentioned, we have great staff, but the requirements are sometimes more than they can handle.    The decisions that are made have great effect on not only the right-of-ways that we try to obtain, but the existing right-of-ways as we are sometimes prevented from using our right-of-ways during different times of the year, and that would be fine, if we could say when there were power outages and when there are not power outages. But we need access all of the time, and so access to those places is very important to us.    We've also seen a great deal of government over-reach in regard to the clean power plan. This has been proposed by the Environmental Protection Agency and under their Rule 111(d). They threatened to remove all fossil fuel generation. And under this rule it will raise the cost of generation for our local businesses and our local people.    Right now all of the rural utilities in Nevada have very little generation. They rely on resources outside the state to bring in power and electricity to their customers. And so this rule will not only raise the cost of electricity, but it will also encourage neighboring states to not let their resources be shared with other states because they are going to be limited in what they can do.    It also limits what we can do as Nevada entities as even newer technology in regards to natural gas will be difficult to permit under these new rules that are put in place.    There's a number of additional things that we have concern of, but I would just like to mention that this over-reaching government regulation has cost impacts on all of the Nevada Rural Electric Associations. And the cost impacts are born primarily by our customers and the small businesses, much like these represented here today. And so when we see these costs passed on to us, we see the effect locally because those are our friends and neighbors.    Again, thank you for this opportunity. I look forward to answering any questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, Mr. Mendis, and thank you for all your testimonies.    I'd like to begin with just one comment. You know, I left D.C. last night. I got here in the late hours. But it has no effect on the regulations that are still coming out of Washington, D.C. When I left there was well over 67,000 pages and that's been handed down since January of this year.    I have been here, I have been in office for less than 11 months and that's almost 600 pages a day. And I'm not sure how many major rules that is going to come up with, but I would just like to ask, start with the first question, and not all of them have to do with any of your effect on your particular business that you are in, but it has an effect on multiple businesses.    Do you believe you're capable of being able to keep up with that regulatory process, just keeping up to date on these 67,000 thousand pages, almost 600 pages a day, financially? I'd like to hear a comment from each one of you. Yes? No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. COOPER. Mr. Chairman, some reliability regulations were passed on to the power utilities several years ago and we had to hire one person just to manage the reliability regulations that came from the Federal Energy Regulatory Commission.    So yes, it does have an effect on us, and it is more than we can handle. When we have to go out and hire people just to satisfy the regulations, it raises the costs for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Mr. Jennings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. I certainly hope I don't have to, you know, comply with 67,000 pages, but I'm from a little bit of a unique perspective because I don't actually work for a small business, I'm here on behalf of the Southern Nevada Home Builders Association. But I work for a larger home builder and, you know, when we kind of canvas the membership of the Southern Nevada Home Builders Association, there were no small businesses, no small home builders that knew enough about the topic that I addressed today to even come today, feel comfortable to testify. And I think that's indicative of what, how difficult it is for a small business owner to handle.    This is a fairly simple issue. It has potentially far-reaching effects. But the fact that they can't even keep up with this, there's that no way they're going to be able to keep up with 67,000 pages of additional regulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Ms. Simmers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. We're basically like the rest of them. It is so hard to keep up with the regulations. We do what we can, and we know what's important. But I don't think that the regulators, they do these things for the good, but they don't see the bottom line on how it affects the people that are actually under them.    But there is so many that we're having to learn all the time that it does make it hard to run your business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. Mr. Hafen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. Well, I would say no, that we can't keep up. And the example of we will review a regulation as it comes down and see the cost, what it does to us, evaluate the risk of taking on the new regulation, or just saying you know what, we can get by without this, it pertains to a particular service and we stopped providing that service because of the additional regulation that we just cannot comply with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. I think all of your testimony today highlights the need for a different way to look at analysis of how we do things in the rule-making process. This one-size-fits-all ultimately ends up back costing the end consumer because you have to pass it on, I believe. Maybe you are a bit different than the businesses I have been around.    What are the suggestions you might have for Congress and how we might deal with this better? Any ideas on that? Just a quick suggestion of how Congress might handle the regulatory process? I have my own opinion, but I am looking for yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. If I may, Mr. Chairman, as I drove down this morning in my three-hour drive, I had a thought about that, and you know, I think it would be good to hear the voices, just like you are hearing today, but I don't know if it would be possible, but one idea that I did have is, having a small business, I don't know, some form of a Committee that could be a sounding board when some of these new regulations are proposed, that before they even make it out, how are they going to affect, other than those that sit in Washington and don't have an idea where Caliente, Nevada is, and what the effect of that regulation is going to take on it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. I'll just change that to another. Is--let's start with the banking industry. We'll talk about Caliente and Alamo, small rural communities and the effect that Dodd-Frank is having, this one-size-fits-all.    Do you believe that it's necessary for rural communities to have the same banking privileges that they do in the large urban cities, the necessity? What does it do to those committees? Ms. Simmers, let's start with you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. Well, if you even look at us, I started in the credit union at 2000, the year 2000. We were only $3.5 million.    We have grown to $20 million, and it's because of adding services that our members need. But the regulatory does make it hard to comply with everything, and to make sure that we stay safe.    In our community, like we mentioned, we are the only financial institution anymore because of Nevada Bank and Trust having to close one of their doors.    So the regulatory does make a big impact on us and we know everybody. We know what they need. We try to provide the services that they need, but the regulations do make it hard to keep track, keep doing things.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Mr. Hafen, how many small businesses rely on your bank to stay open, to function, as an ability to do their work in your communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. Well, I know off the top of my head I wouldn't be able to guess, but I can look at Caliente, at almost every small business in Caliente, Panaca, and Pioche come to our bank because there's only one other option on that end of the County, and that's the American First Credit Union.    But where that's the businesses comes to us, and so I can say everything on the northern end of Lincoln County would come to us, and then continues up the state, into Ely and Elko and Mesquite as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. What effect does that have on employees that work for those counties and can't cash their check in their local community, that can't pay their home bill in their local community, that can't do the grocery shopping without the financial ability to have flexibility? Anybody dare touch on that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. You know, one example, if I may, Mr. Chairman, in Pioche there's been a bank in Pioche forever. Bank of America had a small branch there and they closed their doors after--well, the Washington Federal purchased Bank of America, the branches in Nevada, and Washington Federal quickly closed that branch.    So here you have the people in that community that has no--they have no bank. And so they have to travel down to Caliente, either to the credit union there, the American First Credit Union, or to us. And we hear it every day, why can't you open a branch here? Why can't you do this? Because they have to travel down and the burden that is placed upon them is very difficult. We hear it constantly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Any comments, Ms. Simmers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. Along those lines, you have to remember, in the small community, if we weren't there, there's a lot of people that wouldn't survive.    You have senior citizens that are on a fixed income. They cannot even afford to drive to wherever to get their money. So if the financial institutions in these small towns do not survive, you are going to have a lot of people that don't survive.    We do a lot for our members that are low income, that are elderly, and for the businesses that start up there, they need to have the small financial institutions around for them to be able to survive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. I'd like to change gears a little bit.    Mr. Jennings, you speak about the mineral rights. Can you give me any idea why the BLM would like to keep holding mineral rights on housing, real estate, and for what purpose do they want to hang on to that right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. I don't want to speculate, but in the published report it talks about revenue, talks about trying to raise revenue for the Federal government. And I think they are leaving money on the table by not pressing their, you know, unfortunately, the mineral rights. And I, you know, it doesn't seem--I can't think of a public interest that it serves beyond that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. You know, the mineral, I don't think many people understand. But I want to be very clear and just tell me a yes or no if I'm wrong on that.    But basically some sites may have collapsible soils that have to be removed from the site. Some sites may have expandable soils. Some sites might have millions of yards, based on the size of the site that may even have millions of yards that are basically unproductive and can't build on them without removing the material.    Do you think that's fair that they want to charge you for the process you are working to just remove or bring in, is that a process and where does that cost get handed down to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. You are exactly right. There are lots of reasons why common soils or sand and gravel needs to be removed from a site, particularly here in North Las Vegas where there's lots of hydro-collapsible and expansive soils that they need to be pulled off and taken somewhere and deposited somewhere and, you know, to be--right now there's no accommodation for, that I'm aware of, for the circumstances under which you are exporting material from a site. It's just how many yards did you take off, and here's what we are going to charge you. And so I don't think it's fair because, you know, I think anyone, when they buy a piece of land has an expectation that they can sort of do with it what they bought it for.    When you have a home builder who buys land to build homes on and you can't do that without paying extra money to the BLM, it's kind of hard to swallow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. While I've got you, would it still be willing to say that basically after you sell that home site, that that homeowner, if they decide to put a pool in their backyard, they could be charged for the excavation of that pool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. That's actually one of the exceptions. So if they do a small--if they do a pool, that's considered a minimal use, under the statutes, actually it's one of the examples. So a pool excavation would not be considered an unauthorized use for a homeowner.    But almost everything beyond that can be considered an unauthorized use and that, the cost of that ultimately get passed on to the consumer and oftentimes that, the unpredictability in the enforcement of the regulation, and the extra costs involved, will discourage investment in the land. Because if you don't know what you are going to be charged for it, then a lot of times you are going to have to pass, and according to a home builders' research, every $1,000 in increase, in price increase for a home kind of prices out 1,800 people from the market. So it makes it difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Would it be fair to say that because the BLM holds well over 80 percent of this state's lands, that our real estate values are well above anyplace else in the country because we have to wait for the Federal government to decide whether they would like to dispose of certain lands, and when those go to auction they are some of the highest prices? And would it be fair to say that if you have unusable soils, should that not be charged maybe back to the BLM, if they are going to play this game? They are selling you invaluable----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. I would hope so, but that's not how it works now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. I understand that. I just wanted to make the comment for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. And then one other thing on that, it's not just the land owned the BLM, it's land that was previously owned by the BLM that is still subject to these mineral reservations. So it's nearly all the land in Nevada that's subject to this in one way or another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. And aren't most of those lands, as they're purchased and as they're improved, aren't they governed by the county, the city, or the states that they are in, for the zoning rules, and they can't be changed for mining purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. That's correct. That's correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. So would you say that we need to look at maybe changing this to where these mineral rights are disposed of when it comes to residential and commercial type of developments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you.    Mr. Cooper, some of the issues that I think you are talking about with these right-of-ways, having to deal with the waters of the U.S., any challenges with that rule that was recently handed down by the BLM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. COOPER. You bet. I would like to give you just a couple of examples. There was an area just north of Mesquite where there was a wash, probably at least two miles away from the Virgin River, that was designated as waters of the United States. And although we personally did not have to mitigate the problems associated with that, the home developer had to meet with BLM and resolve those issues.    Just recently we've had a similar situation. We're working on a right-of-way to build a transmission line to Mesquite, and about two miles north of Logandale, and we're talking probably at least ten miles away from Lake Mead, we cross a wash. The wash is about 12 inches deep and about three feet wide. And as part of our right-of-way process, the BLM flagged that because it was part of the waters of the United States, and we had to bring in some specialist from the Army Corps of Engineers, and some BLM people, and we had to bring in our own specialist to help mitigate the problem. And the solution that they came up with and, you know, we were a little worried. We didn't know if we were going to have to build a suspension bridge, or what we were going to have to do there, but the remedy was it's okay to put a culvert in the wash.    Now I think that there was a much simpler way to figure that out. That's probably what we would have done to begin with. And so these waters of the United States issues, even though we live in the desert, they have a great effect on us because there are a number of washes that are dry 99 percent of the time that are considered waters of the United States.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. The OPD Number 5 has some of the cheapest power rates, I think probably in the state, due to the compact with the Hoover Dam. They are not fluctuating a lot, I don't believe, over the years. But how much have your rates changed, due to having to live up to some of the regulations and the costs handed down to the end user, the energy user? Has that increased over the past 10 to 20 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. COOPER. Well, it's interesting. I saw--and you're right, the hydropower is a very cheap resource and we appreciate that.    But I would also make mention that the power customers, not just Overton Power, but NV Energy and all of the other utilities that get power from there have paid the costs of the dam and the visitors center and all the other improvements that have been done there. Those have been paid for on the backs of the power customers.    Now it's interesting. I saw a number, and I tried to look this up before I came today, just in case you asked me this, but part of the price that we pay for our federal hydropower includes multi-species conservation, and I believe the number was over $400 billion had been paid by the power customers since Hoover Dam was created to mitigate endangered species problems. And those are all dollars that are paid for by businesses and the customers that we have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Another fact I'd like y'all to know that as we left this week these costs of the recent regulations that have been handed down is already up around $88.9 billion, and with the Dodd-Frank rule, what are we, one-third of the way there? Two-thirds of the way there.    So $88.9 billion. So before the end of the year we're looking at probably close to $89-plus billion.    Another question I would ask Mr. Jennings. Is--BLM issues, we'll take the Clark County area alone, the fastest growing place in its heyday there ten years ago, in the nation.    The real estate prices soared. Would you say that's due to the fact that we have not only regulations, but we're encumbered by the lack of land, and where are we today, based on build-out for this community, with actual private lands that have been put into place, and we continue now to even encumber that more with these type of regulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. Well, there is--most of the developable land in Clark County and southern Nevada is owned by the BLM. And as we expand, it becomes even more so because there's only so many in-filled pieces that you can buy from private parties. So you're really relying on the BLM. And the BLM, you know, they can charge whatever they want.    They go through an appraisal procedure that they need to follow, but it certainly does put a, I believe, raise values in land and makes it very difficult to continue a home building business because real estate values aren't keeping pace.    So once land becomes too expensive, none of the deals pencil. They just can't be made to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Ms. Simmers, as the only institution in Alamo, what do you see the future, if you could just kind of give me a guess, if you had to close your doors as a financial institution in Caliente, Mr. Hafen, you can give me the same answer in your area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. It would be bleak in our communities. Because as I said, you have a lot of people that are medium in their income and they can't afford maybe to go somewhere else.    But you do have a lot of people that are either low income or elderly. They cannot go anywhere else. So in shutting our doors, you are hurting those people. Because, say, Nevada Bank &amp; Trust was still open and we weren't, they are the closest thing.    So how are these elderly, or these low income, going to travel 60 miles to get their banking done? You know, it's the same thing with them, they've got added costs on their banks to come down to service even the ATMs in our area, or the local businesses in our area.    So it's kind of a give-and-take between both of us. If something happened to either one of us, it does put a major strain on the people that live there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. I'd like to ask in a different direction. Anything that major happens out in the rural communities, basically the 93 improvements, or any major road projects, they are usually not able to be completed by a local contractor, in most cases.    When people come into town and they are there for weeks, maybe months on end, do you see any impact to those folks also when they go out and they do these construction jobs and all this other rural electric power jobs to build expansion, do you see a challenge there at all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. We see it. I mean they come into our local RV parks. That's where they are staying while they are doing these jobs, and if we weren't there for them, a lot of them, I mean to get their get cash for them, sometimes the ATMs don't work for their card, or something, it puts a strain on the workers that are coming in if our financial institution was not there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Mr. Hafen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. I agree. One thing I have noticed, we have a few customers that own small motels in Caliente and they depend on the railroad, for example, coming in and doing service jobs up and down that railroad that runs through there. They depend on the BLM to come in and fight fires in the summer. They depend on road projects for people to stay in their motels.    If they don't have it, they dry up and blow away. And that impacts them, it impacts us because they are customers.    Now if we were to disappear, I couldn't even imagine the devastation. You would see these small rural communities become ghost towns like many other towns in this state that are just, they dry up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Last question to both of you, I guess, do you believe that volume dictates the cost of fees and others, or is it just a one-size-fits-all again? Should things be looked at differently in these regulations, and do you believe there's other ways we can look at this differently for rural America versus urban America? And do you think it's fair that you guys get a different consideration than urban America.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. I believe yes, we have to be looked at differently. An example of that is a uniform overdraft program that the CFPB is working on right now.    The one program that if pushed out to everybody, we know our customers, as Ms. Simmers said. She knows everybody that comes into their branch, her branch. We do the same thing. We know our people. And if the regulation is the same for us as it is for the large institutions that are too big to fail, then we can't keep up. We would have to close doors. We would have to lay people off and I mean it's a triple effect, all the way down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. Ms. Jennings or Ms. Simmers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. I agree. I mean the big regulations that they see, a lot of, if you think about it, the big financial institutions, they take on these and they don't see the trickle-down effect.    Since we do, you know, we basically post all of the stuff ourselves, we see how these little, how the rules affect the end consumer, which I don't think is taken into effect.    So yeah, any big regulation that comes down, I think they should have a different thing for the smaller ones versus the bigger ones.    We don't deal with all the stuff that they do. We deal with a lot, but we know our members, as we've said. We know who comes in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. One last question for you folks, where do folks go now for a home loan in your area, if they can't get that with you folks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. We still do some. We're open-ended loans on our home loans, so we're able to. But on the negative side of that, because we're so small, we do have to do a variable rate interest. That hurts the people at the end, but they get their mortgages.    We don't do a whole lot because we can't have over 50 percent of our loans in that, because we want to protect the credit union. So it is a give and take, where you help, but yet you can't help everybody.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. We simply have to refer them to someone down the street. In Caliente, it's American First Credit Union, and so we have to refer them down there, or refer them to a non-depository institution, such as, you know, your on-line brokers and things of that nature that offer mortgages, and that's the only avenue, if somebody comes in the door and wants a mortgage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. I'd like to just kind of go across the panel. Mr. Cooper, being as how you got to be last on the first go-around, we'll have you go first.    Could you wrap up with any comments that I haven't asked or any things that you think that we need to be dealing with or looking at that I haven't asked the right questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. COOPER. Well, I appreciate the opportunity. I would like to say that yeah, things are difficult. But there are instances where we've learned to work together with government agencies and when common sense prevails and they are allowed to get beyond some of these regulations, that there are success stories out there.    I'll give you an example of the rangeland fires that affect the utilities in northern Nevada. When a rangeland fire occurred, the companies would pull up to the fire area and try to prevent the fire from burning down their power poles and destroying more land and property.    The utilities were barred from going into those areas when fires occurred. So basically they had to pull up and watch their poles burn down, and then go in and replace the poles after the fire went by.    They were able to work with the BLM fire department and they came to an arrangement where now they share resources, they use the utilities as a resource when a fire comes through. They, the utilities, make their equipment, their water trucks, their people available to prevent the fires, prevent poles from being destroyed, to prevent habitat for the greater sage grouse from being destroyed, and it prevents farm from being destroyed.    When a little bit of common sense is injected and everybody is able to work together, rather than work within these rules that are made for everybody, we find that there can be some success stories in there, and we just would encourage more of those opportunities to work together with these agencies to find things that fit and that work for everybody.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you, sir. Mr. Jennings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. JENNINGS. Yes. You know, I was in the home building industry beginning at the high times and then all the way through the recession, all the way to the deepest part of the recession, and then now as we've sort of come out of it, and there were a lot of builders back in 2005 and 2006 and after the recession it wiped out pretty much all of the little guys, all the small business, all the small home builders. The larger ones just sort of managed to get by.    But as we've seen kind of the wobbly recovery, the additional regulations, the additional kind of choking on the industry has made it very difficult, more difficult for small home builders to come back in, to reform and to start up operations again, because it's just too expensive, too burdensome, and too difficult, too risky. And so if they, if you can do anything to lighten the load and bring some common sense back to some of these regulations and the enforcement of those regulations, I think you'll see more of the small type of home builder re-enter the market and I think that ends up benefiting everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. Ms. Simmers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SIMMERS. I think, you know, if we had a little bit longer maybe for the small ones to comment on some of the regulations. I mean a lot of the regulations are, start out to be needed, but it's the little trickle-down that they don't get some, how things are done.    To even have, you know, a committee that goes through and no matter what kind of business it is, see how this actually, what the regulation, how it affects.    One that I always have a pet peeve on is the Bank Secrecy Act. To me it's kind of stupid if we have to do a fact check on a bank that's in the United States, when they are covered under the government.    It is the little things that happen in these regulations that they don't realize unless you really saw it to the end. You know, we would like to be able to see somebody check up on things and see actually how the regulation is working. Is it doing what it was meant to be.    I'm not as eloquent as a lot of these in talking, you know, I'm from a small community. But we see a lot of things, because we're hands-on, that I don't think the regulators really meant for the regulation to happen. But it just happened to be a trickle-down effect of it. And so it would be interesting to see if, even with, you know, the construction and everything else, if they took the time or had the resources to be able to, once a regulation is passed, to see actually is it doing what it was meant to do for the mass of the population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. Thank you. Mr. Hafen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HAFEN. Well, thank you once again for allowing us to come and to share a few of our thoughts and some of the things that trouble us.    But to echo much of what has been said, we--I think if we just don't forget the little guy, because this country is built on little guys, and everybody started as a little company. And to forget us, we will just cease to exist. And so as Robin mentions, Ms. Simmers, that in a sense, test the regulation before it hits us. Because those unintended consequences are the ones that get us, the small institutions. So thank you very much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman HARDY. I'd like to thank you all for being here. This is a final comment, you know, from my standpoint, you know, I went to Congress and in some cases I have to look at it as self-serving. I have children and grandchildren and I care about the direction and the opportunities my children and grandchildren have for the future. And I think that in Congress where somewhere along the line we forget that we're here to help people. We're here to serve people.    We are here to help, but we are never supposed to forget when we help one, we are not supposed to hinder another. That is our obligation, and I thank you for being here today.    I really appreciate you taking the time out of your day to come and talk and we look forward to trying to have some more of these. And if there's anybody here in the audience that has ideas for the future that you think we're not getting your questions answered, I have a staff here. I want to make sure that they get an opportunity to hear those questions because we are working on them and the Small Business Committee is about protecting small businesses, which is the lifeblood of this nation.    64 percent of people employed in this country were employed by small businesses. We're losing small businesses at a rapider rate than we've ever lost them before, and I believe it's because of the continuing over-reach of regulations.    We do need regulations, but we cannot hurt people. We are here to help people.    With that being said, if there's no further questions, I want to thank the City of North Las Vegas, the Hall for hosting us, and I thank you all for participating here today.    I appreciate your insight into the regulatory challenges facing small businesses today. The hearing will only reaffirm my belief that one-size-fits-all regulation does not work. Differences of geographic areas and business size must be more carefully reviewed.    I will take this message back to my colleagues in Washington and continue to fight for common sense reforms and reduce the regulatory burdens on small firms. I ask unanimous consent that members have five legislative days to submit their statements and supporting materials for the record. Without objection, so ordered.    This hearing is now adjourned. Thank you for being here.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +646,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +671,2113 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s"/>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
